--- a/Docs/Historias_Usuario.xlsx
+++ b/Docs/Historias_Usuario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Downloads\MinTIC2022\Ciclo3\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Downloads\MinTIC2022\Ciclo3\Proyecto\Api_Web_Textil\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -326,9 +326,6 @@
     <t>Crear subprocesos según opciones</t>
   </si>
   <si>
-    <t>Lavado, Teñido, Rotura</t>
-  </si>
-  <si>
     <t>Registro origen prenda</t>
   </si>
   <si>
@@ -447,6 +444,9 @@
   </si>
   <si>
     <t>Escoger cliente de la prenda</t>
+  </si>
+  <si>
+    <t>Ozono Humedo, Ozono Seco, Lavado, Teñido, Motortool, Desengome.</t>
   </si>
 </sst>
 </file>
@@ -594,70 +594,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,8 +943,8 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,90 +990,90 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="27" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="26" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1081,326 +1081,326 @@
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="18" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="17" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="17"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="17" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="18" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="21" t="s">
+      <c r="E17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="17" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="21" t="s">
+      <c r="E19" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="17"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="17" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="18" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="17"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="17" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1414,691 +1414,691 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="12" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="12" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="12" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="12" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="13" t="s">
+      <c r="H29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="E41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="13" t="s">
+      <c r="D51" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12" t="s">
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="D52" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="13" t="s">
+      <c r="E52" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H52" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I52" s="13"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
@@ -2126,25 +2126,11 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A24:A52"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B7:B22"/>
@@ -2161,11 +2147,25 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A24:A52"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B24:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
